--- a/experimentação/rosenbrock/Testes_max_fun_calls/experimento_rosen_50_dimensoes_pcdeepso.xlsx
+++ b/experimentação/rosenbrock/Testes_max_fun_calls/experimento_rosen_50_dimensoes_pcdeepso.xlsx
@@ -453,392 +453,392 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.11853071408562</v>
+        <v>0.003318612077168091</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.0025590428719175, 0.9963939964940014, 0.9999265511371717, 0.9990677774284992, 0.9996956528465382, 1.0046661040719553, 0.9980523202738512, 0.9981974751737067, 1.0017461882414551, 1.0063108321176768, 1.001910871639756, 0.9962809563583755, 1.0031725670048226, 1.0025627495145308, 1.0009026349445114, 1.0018892973815778, 1.0030217549400273, 1.0033183633973903, 1.0022721845620202, 1.003029804198342, 0.9954565515315011, 1.0005373684541212, 1.002110984495182, 1.0017372752499976, 1.0015616187952123, 0.999376812096276, 0.9916796898536085, 0.9775736687451284, 0.9926923425392024, 1.007954404139443, 0.9955033787472816, 0.9935409491551099, 0.9955734987856952, 0.9992661799595953, 0.9915574566791007, 0.9873494484037515, 0.9810502571242219, 0.9628541337945447, 0.9300242291281949, 0.8639532696553904, 0.7381851534979482, 0.5307058719438387, 0.2597631259220057, 0.061566494514671194, 0.012712616674481961, 0.010263002704146556, 0.010210163480896848, 0.010204454492125712, 0.010004455979911633, 0.0001052572929612393</t>
+          <t>0.9998091982163766, 1.0000126972779593, 1.0000920464818637, 1.0000390595676432, 0.9999066828638551, 0.999712694971436, 1.0001200213352288, 1.0005797097282505, 1.0001441952238206, 0.9996422048248601, 1.001418516827778, 0.9991928994723775, 0.9986299300183125, 0.9995101057220779, 1.0001393854754341, 0.9998714028418239, 0.9995096098607855, 0.9995874354637853, 0.9999681679709743, 1.0003677484822913, 1.000257410524628, 1.000258699289715, 1.0002539356055435, 1.000221766976021, 1.0001171822820891, 0.9999127492735588, 0.999817706561212, 0.9998844456518291, 0.9999325000966167, 1.0000971589696859, 1.0001726501186121, 1.0001296319087183, 1.0000060476078934, 0.9998322425027588, 0.9995457007012626, 0.9990291692557287, 0.9994906823091751, 0.9998190724923317, 1.0001049580802999, 1.0001098361719307, 1.0002846904333833, 1.0000655749929706, 0.999967336569306, 1.000135690393142, 1.0002896450982228, 1.0005715479498958, 1.000761207110383, 1.0012898531183905, 1.0033317475767571, 1.0069933455159226</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>58259</v>
+        <v>100062</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7.453928493124348</v>
+        <v>0.006978269609458462</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.000633502027053, 0.9929268106820824, 1.003150767769192, 0.9887225462926328, 0.9960633384284561, 1.0058037739397974, 1.002238096834247, 1.0000222497224662, 0.998630166562384, 0.9985897189351128, 1.000192994238307, 0.997288151182538, 0.9978112106604827, 0.9999585928705589, 1.0029019845578384, 0.9984918102337592, 0.9965857462307806, 1.0013467784611532, 1.0005355049493876, 0.9991649703888852, 0.9984264819744181, 0.9970899496536002, 0.995761678522844, 0.9952653899994052, 0.9872349433585156, 0.9750254884098821, 0.9781828225503133, 0.9898497625844681, 1.000446085549256, 1.0093747641612747, 1.0006422361618241, 1.0014182089075576, 1.0044057730277594, 1.0022350337402817, 0.9972516187703543, 0.9989010735281928, 0.9810685834281923, 0.9539365386326841, 0.9170131404313189, 0.8307386909513514, 0.679183551099968, 0.45564381604477294, 0.19810754068596256, 0.04196169492584699, 0.011510740184484662, 0.010237079905210285, 0.010209391267049115, 0.010204442579177882, 0.010004680132389442, 0.00011658789333690663</t>
+          <t>1.0000222153725031, 0.9998915203222118, 1.0000133708854066, 1.0001340332690587, 0.9989650260244953, 0.9972776959343453, 0.9995042925018561, 1.0014690976919833, 1.0000494143407803, 0.9986800208766012, 1.0000210297560297, 1.0013303048789397, 0.999360291044547, 0.9998925902412855, 1.0003633510428607, 1.0003191833522371, 1.000427248392545, 0.999905107619002, 0.9993153841035205, 0.999875902971645, 1.0003329628213675, 0.9999505541102225, 1.0000430946258603, 1.0001162938775336, 1.0001052515749589, 1.0001412420965399, 0.9999035942718527, 0.9999338275242536, 0.9999444174026767, 1.0000363482300778, 1.0001405460860349, 1.0000258435769973, 0.9999134497228627, 0.9997439410489416, 0.9998102904614846, 0.9997879431454624, 0.9996593688097394, 0.9998884561958143, 1.0000529698509044, 1.0002384603861079, 1.0000349633249979, 0.9998499295372524, 1.0000234343097933, 1.0001458996293717, 1.0003074126171514, 1.000349109422251, 1.0005429552449647, 1.0010055168220322, 1.0022273715765653, 1.0045751412119501</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57267</v>
+        <v>100502</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.984794719719355</v>
+        <v>0.01151923800666809</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.9994534167518759, 1.0007460408993538, 1.0000169617428185, 1.0004689653801146, 0.9987746645355244, 0.9970141497476145, 1.0017938761358514, 1.0067895257681168, 1.0006466777103402, 0.9940939215479673, 0.9997756207501173, 1.0052411788370241, 1.0021093321140913, 1.000359636205922, 0.9976402486730812, 0.9942822252327203, 0.9907396238893769, 1.0015748045858348, 1.0005178768086578, 1.0005756320786625, 1.0009865016368626, 1.001372633682101, 1.0016176993539885, 1.0004730940585582, 0.9999128122479998, 1.0005331461229774, 1.0014742107121042, 0.999301780110128, 0.9977580931004355, 0.9915669213902186, 1.0037701032102526, 1.003396894341695, 0.9994639824541344, 0.9950031646424442, 0.9865306754287352, 0.9776896522500512, 0.9658736356599746, 0.9260741208917548, 0.857520211387735, 0.7431353174223789, 0.5333235733321793, 0.2529394046368021, 0.06610529183954159, 0.0137333082884052, 0.010289796719354847, 0.010210334137238809, 0.010208676158679507, 0.010204519770663664, 0.010004354148032154, 0.00010004899495387015</t>
+          <t>1.0002536368581756, 1.0032447004608787, 0.9977026351853443, 1.0004079705036544, 1.000398981430779, 1.0001701199693405, 1.0005077659332817, 1.001075508797672, 1.0003835695985466, 0.9998816019858883, 0.9999324519587866, 0.9999632610708817, 0.9999881366900074, 1.0000084366659436, 1.0000002955711282, 0.9999626398270117, 0.9998882216138405, 0.9999596093087282, 1.00002979330997, 1.0000829116814973, 1.000063561945785, 1.0000483245505056, 1.000040878174197, 1.0000524536236963, 1.0000340509733625, 0.9999639114012836, 0.9999634493446625, 0.9999827259539541, 0.9999870226861451, 1.000081163926809, 0.9999325281710897, 0.9999820840371996, 0.9999548436595158, 1.0000355405227328, 1.000176439048411, 1.0000143914794344, 0.9998462913198959, 0.9999347134412278, 0.9999850093547503, 1.0000121122469325, 0.9999765954908683, 0.9998867907008723, 0.9999352443915975, 1.000026158798927, 1.0001428795806628, 1.0000046383289765, 0.9998937404021866, 0.999715791355905, 0.9993389137469811, 0.998619878937119</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>56358</v>
+        <v>100298</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8.462867800474353</v>
+        <v>0.01647533303140074</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.9958973357101935, 1.0002508451648984, 0.998388960165557, 1.0003177253524465, 1.0011684563254701, 1.0065547877347238, 0.9890604505037428, 1.001961443005614, 0.9993724907369518, 1.0023159896460332, 0.9996487120196775, 0.9948051640560555, 1.0000599231837424, 1.0024306871772501, 1.0056700176998963, 1.0008334443880162, 0.996356335274332, 0.9988800425692674, 0.998842871060993, 0.9971133766787602, 0.9991293497310254, 1.003749149492017, 0.9981380342421395, 0.9947610525092846, 1.0004811753108416, 1.0052763701658647, 1.0017574230981618, 1.0001734651603904, 0.9967669953675719, 1.0029190002992998, 1.0000326004322382, 0.9970646088458182, 0.9842906525070573, 0.9941080320617501, 0.9918167023136126, 0.9733816733465221, 0.9390285325518624, 0.9021209305318307, 0.8059418917575261, 0.6406497874814971, 0.40779887194992614, 0.16673353561128146, 0.034572714829188854, 0.011230692518232818, 0.010231243512710365, 0.01020911038495771, 0.010208670679161631, 0.010204532166862013, 0.010004404776898842, 0.00010259271683426608</t>
+          <t>0.9999265430311315, 1.0000049757312004, 0.9999370557392878, 0.9998867512255143, 1.0001225635282345, 1.0005112136043481, 0.9997717588271597, 0.9991822292764242, 0.9999586614075062, 1.000842485696732, 1.000086358136424, 0.9993869861004477, 1.0007140399146157, 1.0001700240976703, 0.9997097037961943, 1.000472337059126, 1.0013795495492308, 1.0000385975823896, 0.998543700784399, 0.9998642797127476, 1.0012685286505947, 0.9992720591405695, 0.9996260846705683, 0.9997329665575383, 0.9999988386539604, 1.0004366516868866, 1.0011603227911965, 0.9989177889560162, 1.00013901566246, 1.0013649212008808, 1.0001478813937028, 0.9988504388562018, 1.0001599263105272, 1.001481466560638, 1.0000824533923707, 0.9988037470046043, 0.999710203042358, 1.0009315942206662, 1.0017473972621198, 1.0006951161309112, 0.9996748647519385, 0.9985018853492567, 0.9989786187535586, 0.9978888193750058, 0.9957723866508935, 0.9922689796399266, 0.9847858637749821, 0.9697800468490883, 0.9397855345285666, 0.8825303392787318</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>56411</v>
+        <v>100086</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8.520726044368701</v>
+        <v>0.02379583468112324</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.999580320008282, 0.9975717422870971, 0.9995404988282298, 1.001517182145852, 0.99767874579222, 0.9992565592035206, 0.9981694780511329, 1.0143346510824685, 0.9996824221572599, 0.9850570008648295, 0.9968825454707604, 1.0088310428561327, 0.9878446936377616, 0.9989106677239479, 1.0121772396888364, 1.0060845523613373, 0.9797469818888586, 0.9949170625900267, 1.0062241940056587, 1.0019498229746426, 1.003821514608078, 0.9985263175054245, 0.9912503379324048, 1.0119918915218467, 1.0020077521671624, 0.9987652803156375, 0.9979676612097381, 1.0060411625839343, 1.0189839217502132, 1.0021768383421934, 0.9874020601375783, 0.9649737940333267, 0.9914855089272655, 0.9941647466437764, 0.9971636072763865, 0.990214930648905, 0.9793946407176362, 0.9524447282528923, 0.9168269518642503, 0.8161355578220614, 0.6653441521943143, 0.4405233158918198, 0.18471581304210136, 0.034342046256828004, 0.010998892470303405, 0.010225409695420492, 0.01020907331370079, 0.010204537339775938, 0.010004365347785944, 0.00010059657497808425</t>
+          <t>1.0020789163673485, 0.999511237931841, 0.9998279166810605, 0.9999396885224648, 1.0000075438534497, 0.9999832886562252, 1.0000880687722735, 1.0002933334508184, 0.9999377959802671, 0.999485254328449, 0.9999308573278, 1.0005556939688791, 1.0016456624035173, 0.9997139922059977, 0.997615225897672, 1.0000386144909281, 1.0023818222071197, 0.99968277278076, 0.9967524759163835, 0.9990480647494724, 1.000924283523526, 1.003263363322311, 1.000204877987412, 0.9973603899273557, 0.9995193268950202, 1.0014073730399642, 1.0002163706757583, 0.9991781674131377, 0.999646751170616, 0.9997603967472527, 0.9998717404578148, 1.000088091282265, 1.0005224607647032, 1.0012934550241728, 1.0005813912577786, 1.0001370066075728, 1.0001517216915068, 0.9999700763581508, 0.9998997751919292, 0.9998797602806062, 0.9997777063774491, 0.9999131547692489, 0.999978733548969, 0.9999436173564937, 0.9999769654774748, 1.0004223339357723, 1.0010699715144478, 1.001490541943954, 1.002594036535906, 1.005357251187126</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>57350</v>
+        <v>100207</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.555342274427725</v>
+        <v>0.03064892338415876</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.0014588614809457, 1.0004041696338726, 1.0001800057812094, 0.9987935577919407, 1.0032322703180732, 1.00860351904472, 0.9947820135652394, 0.9979026548068832, 0.9994245013638949, 1.0000261893832214, 0.998425027600634, 0.9983553937636068, 1.0006599560686946, 1.0009335627130636, 1.0010299717156352, 0.9996818022569482, 0.9981687018896995, 1.0024284980603493, 0.9988535000608929, 0.9982531650387951, 1.0015553658620309, 0.9970112381277286, 0.9925933074181007, 0.9953449838327502, 0.9981106759793246, 0.9955617003308226, 0.991123671432499, 0.9699317465757666, 1.0041975828899092, 0.995060903536244, 0.9917360260960243, 0.9917763669900952, 0.9949850128848606, 0.9906792465119375, 0.9879629590797847, 0.9818036915592835, 0.9552821122977997, 0.9190592904835044, 0.8445411588186301, 0.6990187624137325, 0.46473192051242795, 0.20461157261267443, 0.04410059102254121, 0.01160422531300707, 0.010238534789945233, 0.010209330446092077, 0.010208648524961847, 0.010204522532866182, 0.01000434358555031, 9.951285676490401e-05</t>
+          <t>1.0001874886559379, 1.0059804367907226, 1.0010974475063317, 0.9963431897034002, 1.0007016518373424, 0.9972214743592115, 0.9990133494724276, 1.0003103841210517, 1.0017556844765494, 1.0009009709421708, 1.0004247616558424, 1.0001432168326436, 0.9998794515583291, 0.999607252304201, 0.9990993476122959, 0.9996136100928481, 0.999829848949503, 0.9999544287971238, 1.0000158452398429, 1.0000393846023095, 1.0000849245837498, 1.000181309564799, 1.0003549652490191, 1.0001192116465296, 1.000005500653782, 0.9999349760477797, 0.9999654150611733, 1.0000079062688392, 1.0000298326976382, 0.999993746072536, 1.000018726781529, 1.000040011179113, 0.9999592359190251, 1.0000059598787197, 1.0000386843241145, 0.9999964730821878, 0.9999515363973347, 0.9999900672708257, 1.000014343218247, 1.0000236803921088, 1.0000126626392039, 1.0000200869112885, 1.000044980166582, 0.9999774834300419, 0.9999136071466362, 1.0000004033284242, 0.9998204907547296, 0.9995214669255513, 0.999281747979862, 0.998669642312096</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>58122</v>
+        <v>100345</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8.655817062496894</v>
+        <v>0.03069441024871095</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.0004077142824337, 0.9982361565348078, 0.9996634648548386, 1.0005741567049067, 0.9919451397885911, 0.981513658177857, 0.9891972095789563, 0.9929858905945597, 1.0060434544748702, 0.9958967825713819, 0.9986273015052692, 1.0011336253827012, 0.9966990069849756, 0.9974102877505614, 1.0004626146285749, 0.9988748982060105, 1.0029971449965878, 1.001201071859839, 0.9951444228976862, 1.0002854935135832, 1.0014253345781554, 0.9984891777494858, 0.9983822889220982, 0.998588044454156, 1.0026968676121588, 0.9990306866399914, 1.0001100120910196, 1.005281557842806, 1.0036598422974579, 1.0025894613160873, 1.0015783242771972, 1.0011024769932826, 0.9962121228980749, 1.0008410988755416, 0.9901219198310692, 0.9694894447117967, 0.9481440455573321, 0.9024652740752287, 0.7997715224698733, 0.6052891064675048, 0.36788500427539983, 0.13591752122259373, 0.022995620938500362, 0.01054741592927461, 0.010215772334789264, 0.010208749241085606, 0.01020836872888699, 0.010204433309292773, 0.01000435792162106, 0.00010032771486246817</t>
+          <t>1.0000586161961142, 1.0004395090546407, 1.000166573390261, 0.9998365171967929, 1.000029274478206, 1.0000626099708085, 0.9996802270386971, 1.0011250896342851, 1.000056519465235, 0.9988850974167891, 0.9998560313854584, 1.0006648248693184, 0.9993184315600786, 0.9999895034429654, 1.0005176194647023, 0.9998047733097288, 0.9990762554537996, 1.001411045813969, 1.0045342334456946, 0.9964205348655953, 1.0009980653689161, 1.0008731504569799, 1.0002530606942706, 0.9998330067394897, 0.9998092290782424, 0.9997918441479667, 0.999769325611536, 0.9997744392159649, 0.9997981747903333, 0.9999224758598941, 0.9999919469163926, 1.0000652567980362, 0.9999956070546288, 1.0002690120039863, 1.000803559268585, 0.9999853294997507, 0.9989954770673823, 0.9998310670313973, 1.0002658931863913, 1.0009379311459248, 0.999825879712904, 0.9986112794842533, 0.9983720598619824, 0.9992557994838005, 0.999742831671866, 0.9966619672025275, 0.9944090477350929, 0.9894105091488826, 0.9785272160283344, 0.9571688305583543</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>57178</v>
+        <v>100573</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9.171058091214801</v>
+        <v>0.03688670165850495</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.9977407322727404, 1.0002416564715517, 0.9987788650477357, 1.0004913767408306, 1.004436505673151, 1.0173757093331672, 0.9898613464308411, 0.991667020434086, 0.9996247919452572, 0.9995675217475269, 0.9963843085299494, 0.9990661925560818, 1.0023139015564184, 1.0046503338809885, 1.005639690577366, 1.002851989226928, 1.0029003833275627, 1.0037082399059183, 0.99818936754926, 0.9864079939951809, 0.990180435603989, 0.9964022324639971, 1.0006174261625456, 0.9948705055004349, 0.9947945774061357, 0.9946849742739177, 0.9936529166257609, 1.000303140598755, 0.9983411836430245, 1.0057017755596214, 1.0055170687507948, 0.9996188256405492, 0.9981797202869139, 1.0002835604444333, 0.9844972440985107, 0.9547724270458464, 0.9209536565312343, 0.8524183616856653, 0.7120795853118536, 0.514419296940432, 0.27301241098740914, 0.06757538327716239, 0.012920111967950197, 0.010267659513240138, 0.010210346540771058, 0.010209077612643768, 0.010208578307855409, 0.010204452250659362, 0.0100043181853032, 9.830201383394676e-05</t>
+          <t>1.0026049743722414, 0.996461269465854, 1.0002915408612756, 1.0062574253978507, 1.0046657004862167, 0.9999658418260722, 1.0002001972428682, 1.000472262309553, 1.0003157532889904, 1.0001428918928028, 0.9999563236734753, 0.9996674678504263, 0.9991795980187559, 1.000057811643339, 1.0009922101800135, 1.0002985673390696, 0.9997550824751975, 0.9990730526276032, 0.9995785221287946, 0.9999604667843806, 1.000355479665387, 1.0009036801918831, 1.0003982532613898, 0.9999402641784932, 0.9993778023003538, 0.9997787314490106, 1.000103233050125, 1.0005095066635767, 1.0003280718669865, 1.0000979774706003, 0.9998930864494031, 1.0015064608758817, 1.0002469687124522, 0.999136689945785, 0.9996249281234821, 0.9999517537273723, 0.9998196762819365, 0.9995595126884285, 0.9997610939946874, 0.9998256433615069, 0.9998244531036062, 0.9997460967843506, 0.9993077704559005, 0.9984712113579157, 0.9969092645575854, 0.9948041490518168, 0.9899086186891731, 0.9799712910120792, 0.9599785925865395, 0.9211819036645166</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>57802</v>
+        <v>100092</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.20929584188254</v>
+        <v>0.0403176793981287</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.0004550984579175, 1.0021422849790287, 1.0006823165138237, 1.001949362524115, 1.0030375165897674, 0.9987106120625135, 0.9975239247943566, 0.9992361752797508, 0.9997666717689632, 1.000110507430691, 0.998783528716701, 1.0005464728622568, 1.0015107670376358, 1.0000206877907944, 0.9989684182570195, 0.9962623146393764, 0.9956933566631367, 0.9978255689141549, 0.9992880214327334, 1.0003829292462814, 0.999592673029515, 0.9962857779670963, 0.994115505979674, 1.0011783267756729, 1.0118266989713354, 1.0008016306921375, 0.9901316258484687, 0.9747256654832613, 0.9796634777151702, 0.9981840676936765, 1.0012011064150428, 1.0009046107440276, 0.9923432684423641, 0.9782535792279867, 0.9704724297661842, 0.9479800650625049, 0.9123397817399045, 0.8345892221461308, 0.7000126113997377, 0.503750703040812, 0.24334771695724172, 0.05356466827252933, 0.01217944611126777, 0.010247954756956655, 0.010204995342516869, 0.01020527080278766, 0.010208860901938661, 0.010202723887009926, 0.010004504786146104, 0.00010948687504118307</t>
+          <t>1.0000398172680902, 0.9999844839034897, 1.000112764096736, 1.0003013200257593, 0.9994925940303131, 0.9984464020428799, 1.0018170800931179, 0.9971343876071102, 0.9998622141368118, 1.0025232816803114, 1.000507633646882, 0.9987418717870334, 0.9995306689162738, 1.0000858045112055, 1.0006774767825057, 0.9975134830931944, 0.9930837302186732, 0.9985326680446422, 1.0032159646861762, 1.0008295168403243, 0.9988554251931875, 0.9992569489747763, 0.9992867934243295, 0.9999314948529096, 1.00055383202673, 1.0014640678243112, 1.000558748209057, 0.9999429877345022, 0.9992968889962621, 0.999860427985575, 1.000346946975035, 1.0001298400070837, 0.9999846892366365, 0.9998384589020501, 0.9996080399955084, 1.0002063743870686, 1.0000838013976994, 0.9999965582900883, 0.9999745781079669, 0.9999351751894396, 0.9999866384031284, 1.0000128638340156, 1.0000370643723664, 1.0000298378208752, 1.0000275594179329, 1.0000310239588899, 1.0001478644944384, 1.0003336172090953, 1.0006805738943216, 1.0013437239692073</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>56883</v>
+        <v>100456</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9.284905284082122</v>
+        <v>0.04053508883205179</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.9802090510739091, 1.0050158678938295, 1.001693496494456, 0.9999001581039174, 0.9996814929174195, 0.9985370508698885, 0.9997683359070211, 0.9993731779359172, 0.9995865552434194, 0.9996073914947241, 1.00207127627007, 1.0028127016626465, 1.0057410525179664, 1.0107075382102997, 1.0112516791825146, 1.0060574758497318, 0.99792798411851, 0.9882936392409, 1.000039562821162, 1.006372327420125, 1.0160696390867716, 1.0033059557053183, 0.9960772857563336, 0.9919474614064332, 1.0017601114443786, 1.014577463047693, 1.0017187832973258, 0.9887348382146206, 1.0035205226022323, 1.0031358500984562, 0.9985741903790539, 0.9929101035169384, 0.9827923259241657, 0.9857633404873549, 0.9812952358171525, 0.971107492164117, 0.9320721494044489, 0.87497920008493, 0.7634965535765486, 0.5700834893954648, 0.30413318084364976, 0.0843617478272791, 0.015344431817113325, 0.010328973109030075, 0.010211197991198769, 0.010208715380706631, 0.0102085830345395, 0.010204483183595056, 0.010004299767557508, 9.73406298664537e-05</t>
+          <t>1.0071291331526713, 0.9980833790891005, 0.9991975397965395, 0.9998814423995414, 0.9997627310709094, 0.9995422963758913, 0.9994524375567528, 0.999063718410232, 1.0014355670084623, 1.004536202175033, 1.0008944982679104, 0.9977004863834487, 1.0001799582355158, 0.9996516427151699, 1.0002266251860448, 1.0008638135124424, 1.0005647464831324, 1.0004781981757276, 1.0006457634473298, 1.000200511051905, 0.9999027970143429, 0.9995803595196252, 0.9998178119940709, 0.9999897311251892, 1.0001603557505885, 0.9998724213425262, 0.9995174585195132, 0.9996589690608237, 0.9996891612638036, 0.9996356471890525, 0.9998520801038927, 1.000045024518036, 0.9995997518312464, 0.999887926647813, 1.0000640857682896, 0.9999711314092912, 0.9998566888312778, 1.0000133981648747, 1.0001281567608191, 1.0002878965526787, 0.9998875225136575, 1.0000125609271475, 1.000147859541716, 1.0002400482617415, 1.0004460014442427, 1.0007041094460334, 1.0013079667095468, 1.0031376958567384, 1.0065673617277455, 1.013336279643913</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>56232</v>
+        <v>100487</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9.40104796934544</v>
+        <v>0.1050936728213727</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.9964769753142837, 1.0003612484697892, 0.9992617467888381, 1.0020862532050376, 0.9959814905230016, 0.9912322405388869, 1.0016998807325428, 0.9996705539613452, 0.9984795716895234, 1.0025112964382867, 1.0010242744658704, 1.003938254963431, 1.002680891698332, 1.002205645074428, 1.0018532688173363, 1.0028097260939495, 1.0006410604074996, 0.9913377771948839, 1.0015299358853809, 1.00040079296641, 0.9997278105070486, 1.0012594117837872, 1.0048873387786952, 0.998908387485048, 0.9950054536167829, 0.9876435823179706, 0.9978991146237242, 1.0039535149251961, 0.9907146758599822, 0.9973396291929287, 0.9998933116195399, 1.0007859845262248, 0.9956603174797295, 0.988904537200018, 0.9763063000409742, 0.9504094212646594, 0.908507147562556, 0.823019976223149, 0.667777756879325, 0.4239478379026107, 0.161205584912526, 0.027988437825467873, 0.010726205805213652, 0.010219837239720893, 0.010209266017920517, 0.010209067003419045, 0.01020898144397348, 0.010204642384765901, 0.010004433097509287, 0.00010391027114595332</t>
+          <t>0.9987118297655484, 0.9974578955603085, 1.0081190340541846, 0.9945492025960775, 0.9954318340733177, 1.0041345515080826, 0.9965355596015282, 0.9983618938080016, 0.9993597457710759, 0.9997783129953967, 1.0001519546016342, 0.9994039300497752, 0.9983298778007367, 0.9990511198023532, 0.9992853224166126, 1.0000907560913108, 1.0005110176850225, 1.0002929438071049, 1.0002148608708261, 1.0002423607639874, 1.0002123087955173, 1.0002673416249668, 1.0001731991776939, 1.0001372560614041, 1.0001047399511203, 1.0001418895785255, 1.0000308063522774, 0.9999707658662579, 0.9999576148107482, 1.000012621197873, 1.000008648736233, 1.0000042900655355, 0.9999878250981183, 1.0000153444847328, 1.000037241018674, 1.0000067723943464, 0.9999679985646615, 1.0000466635121001, 1.0001401216190449, 1.0003018795969385, 1.0002555410211564, 1.000102686685979, 0.9999956342063846, 1.0000157298014483, 1.0002203789488144, 1.0004952473559598, 1.0008835518253794, 1.001648373023743, 1.0033795646721768, 1.0068237473346624</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>57804</v>
+        <v>100512</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>9.40236538078649</v>
+        <v>0.1060643747913208</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.9989954840586261, 0.9986235757650239, 0.9998703081969574, 1.0021770384952695, 0.9974820116245097, 0.9958029442075635, 1.001096784780886, 1.005550765651455, 1.000026549025089, 0.9950378538293729, 0.9995205610040375, 1.0042979606471836, 0.9949089030760299, 0.999593788544131, 1.0034972883537001, 0.9984381886442841, 0.9929160293048036, 1.008957486790104, 1.0295011333873045, 0.9791473412792017, 1.0003895841128532, 1.0207705603244681, 1.0110115590752202, 1.00718059820526, 1.0043947197210623, 1.0003249277364246, 1.002731154117698, 1.0026975144171806, 1.0032559392004798, 0.9974573761245267, 0.9933954213538129, 0.9990503656338001, 0.9995759966420342, 0.9981140956086629, 1.0006424790839292, 0.9794670776378648, 0.9479714931139468, 0.9162397994803123, 0.8383376594541465, 0.6675304959001428, 0.431593708836525, 0.19053027354348462, 0.038732028991980964, 0.011264591156025397, 0.010231363065844875, 0.010209413437372535, 0.010208778498032691, 0.010204586792538797, 0.010004377896009687, 0.00010117972527604067</t>
+          <t>1.0013055364662469, 1.0064026674395803, 1.0115955478419885, 0.9956094692019019, 1.0027666038283807, 1.0002538490040869, 0.9978474464085699, 0.9996964294465888, 1.0013873154031865, 1.0037502495494375, 1.0013362105470123, 0.999587305556873, 0.9976192792757912, 0.9987493086457631, 0.9992414993258225, 1.0000385869734127, 1.0008421238743859, 1.0020609666324702, 1.0007198871766216, 0.9997451490274828, 1.000009096883432, 1.0002696474229675, 1.0006597090062395, 1.00017082829036, 0.9997615683056781, 0.9998470230192388, 0.9998892809010784, 0.9998654922877638, 0.9999748569464982, 0.9999881518722168, 0.9999882443899417, 1.0000053393316004, 1.0000118317267763, 1.0000107253335169, 1.0000045160613116, 0.9999929893401537, 1.0000025471017184, 1.0000074072482399, 1.0000059548790874, 0.9999995010091838, 0.9999881020702911, 0.9999650659417637, 1.0000048131214299, 1.000036820222297, 1.0000504562247896, 1.0000813992797177, 1.0001779232810826, 1.0003716954050006, 1.0007460275193811, 1.001475124511508</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>57929</v>
+        <v>100564</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9.617631663687051</v>
+        <v>0.1531513376774455</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.0007060003705581, 1.0017326430147064, 1.0000068558578776, 0.9967963027400055, 1.0009012239086024, 0.9996463846044554, 0.9984762096431347, 1.0011979121440506, 0.9992351913786935, 0.999923631127675, 0.999932213594226, 1.000835321495917, 0.9976777082645563, 0.9974205035069154, 0.9991348819246648, 1.0021050923839805, 1.0002707049298043, 1.0003198837673655, 1.0000193255461975, 0.9970063879606847, 1.000929665583069, 0.9987841804627708, 0.996636670564924, 0.999796674658428, 1.004959610470308, 1.0143441027449906, 1.001780150083704, 0.9895269403723022, 0.9985433025676597, 1.005039125943253, 1.0083697304675392, 0.9959096808912588, 0.995359444469145, 0.9861201027072615, 0.9645292622564237, 0.9435701312786579, 0.8997476452144325, 0.7937376017874216, 0.6155389014282238, 0.3603462182725087, 0.12095298440191146, 0.021318836603043078, 0.010510637661133684, 0.010214808675569733, 0.010208682496230938, 0.010208583405857397, 0.01020862493659412, 0.010204514765273655, 0.010004355217552241, 0.00010010810586373658</t>
+          <t>1.000066294377897, 0.999432701831465, 0.9997163205536657, 0.9998320872525599, 0.9929398713539768, 0.9823844649653065, 0.9921614400022956, 0.997920722758828, 1.000512783207864, 1.0033232272127213, 1.001206085934646, 0.9996068638673008, 1.0004381027353257, 1.000943312817207, 1.0019020007316213, 0.9988672155429298, 0.9951016074380501, 1.005003911314111, 1.002351569455898, 1.0003993513881928, 0.9986462728017208, 0.99843655147877, 1.0007552899431202, 1.0034983322481736, 0.9999979032446301, 0.9964598847109342, 0.9994397176965135, 1.0020555008280991, 1.000898872897972, 1.0001759333057532, 1.0001462105297796, 1.0002362952614974, 1.0004632972919294, 1.0001392410397205, 0.9998646742012769, 0.9996766973982466, 0.999281828448789, 0.9996551882609119, 0.9998096714536372, 1.0001782253212765, 1.0006542906764309, 0.9998867567494564, 0.9999916255565883, 1.000061344248631, 0.9999330594239563, 0.999804895001213, 0.9996058822934504, 0.9993741484955024, 0.9988337993724389, 0.9975203153882402</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>56315</v>
+        <v>100485</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>9.702869705665096</v>
+        <v>0.1996328961422279</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.9994552529097243, 0.9985673767861802, 0.999035389614703, 0.999473229457383, 1.0014437799156581, 1.007928289756976, 0.9851705292585288, 1.006970720779299, 0.9986235187156403, 0.9961930291512495, 0.9979750482224312, 0.9997783410624365, 1.0016446055151802, 1.0017734874724102, 1.0026742525074626, 1.0020624178227449, 1.0046733720486478, 1.0004039510611495, 0.9983761350640865, 1.0071080456468882, 1.009352940996778, 1.0036908374468303, 0.9962021275163007, 1.0011728384411853, 1.0000046082325778, 0.9993689555427925, 0.9989853674346457, 0.9990946850380757, 0.9979358255813398, 1.0020749733152297, 1.0033983006548817, 1.0056084938387442, 0.9930988561225864, 0.9674601112964704, 0.97134455829932, 0.9469930724645166, 0.8931105168371316, 0.7914962203157546, 0.6263677109354904, 0.3895081378452574, 0.14944931918465063, 0.028603412530568542, 0.010865327399460098, 0.010222708402008672, 0.010209233279161636, 0.010208827899337804, 0.010208558744885441, 0.010204563909275852, 0.010004395719662442, 0.00010210301687703123</t>
+          <t>0.9997677084633059, 0.9996139291913719, 1.0003087596278553, 1.0014515270009954, 0.9961077666771009, 0.988770070958338, 1.0061113781085276, 1.008620843766567, 1.000422001571723, 0.9921655524229931, 1.0007529109669613, 1.0098211264316448, 1.003438146766508, 0.9987455431610622, 0.9972399492303701, 0.9999915409687319, 1.0027107025305257, 1.0005309750569729, 0.9986388218804746, 0.9991662944213014, 0.9993213684751612, 0.9994815233671666, 0.9994416363369045, 0.9990729312347214, 0.9993967281604565, 0.999344479753496, 0.9996323608694124, 0.9996138072153352, 0.9999904950116336, 1.0001817644936248, 1.0004192712157367, 1.0001624786116752, 1.0000588379967272, 1.0000088884635363, 0.999881185503588, 0.9995941280544225, 1.0001258059895681, 1.000029282134558, 1.0000013199788484, 0.999974574369908, 0.9999271170739221, 0.9999299853696857, 0.9999445411500237, 0.9999665494526522, 0.9996075441886939, 0.9989781232709279, 0.998886972039828, 0.9973410367891355, 0.9944343538892904, 0.9888547173579406</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>57767</v>
+        <v>100433</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9.91370433157714</v>
+        <v>0.2252565079552985</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.9966727465573202, 1.0012797479433102, 0.9989021485522984, 0.9997401722741647, 1.0004881741077147, 1.0016337512093998, 0.9920526158664494, 1.010229834533047, 1.0010202234538328, 0.997656772999168, 1.0026126388475414, 1.0011914961893595, 0.9968869282590788, 1.0007682563635383, 1.0009574923379603, 1.0025547437354037, 1.0006811080043885, 0.9998134288537793, 0.998978930798761, 0.9968294975076749, 0.9976098422704393, 1.0061798313084191, 1.0020280271083732, 1.0014707160180774, 1.0029733036697415, 1.0063895435151335, 1.0070357102200447, 0.9962919728743508, 0.9924989175204398, 0.9929464018319927, 0.9986685375390293, 1.002562912479894, 0.9925602780858669, 0.9827513740934102, 0.966686573403851, 0.9312039352282131, 0.8706416768302724, 0.7474484269551677, 0.5469694101033553, 0.27685728188419106, 0.07164295222438653, 0.013985013709839553, 0.01029455851012823, 0.010210571564546595, 0.010208794705027908, 0.010208870532948597, 0.010208579209966822, 0.010204518462331284, 0.010004285786406983, 9.65986173216049e-05</t>
+          <t>1.0040370216977073, 1.0074971357699845, 0.9868454836818593, 0.9874490158213014, 0.9817785276021889, 0.990964813660146, 0.9954839018421586, 0.997841347834104, 0.9990329637404004, 0.9996254222713923, 0.9997193594828523, 0.9987487318139469, 0.9996449401308012, 1.0000969399169963, 1.0001040497714182, 1.0000603239653476, 1.000023222844117, 0.999887856237451, 0.9996755200573604, 0.9992909465817439, 0.9989302448901309, 0.9980549043239988, 0.999959319990468, 1.0018566731920207, 1.0001216297370166, 0.9994101874933762, 0.998351214954034, 1.0019134380200279, 1.006339636735084, 1.002276737250755, 0.9993706278814751, 0.9994990822234107, 0.9992910405131394, 1.0014397551601442, 1.0002694533003467, 0.9992374506875618, 0.9995388963063482, 0.9997215797923682, 0.9998439244015088, 0.9999227555976744, 0.9998844530212395, 0.9998812250328857, 1.0004385753847531, 1.0009560418018524, 1.001981680256128, 1.0041439205920395, 1.0084206147626271, 1.0164637663720306, 1.0330571526929393, 1.0677227732807655</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>56856</v>
+        <v>100221</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>10.1109449883016</v>
+        <v>0.2641392101020513</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.9982897219588636, 1.0006999932865848, 0.9995366896601061, 0.9997924085267597, 1.006083135338311, 1.0156947755106718, 1.0061327393677695, 0.9987416764702679, 0.9995561307331855, 1.0034422335484183, 1.0017655821427587, 1.0024006261821694, 1.006441432044854, 1.0034198077875045, 0.9994343156104867, 1.0071206011616216, 1.0091855471582223, 1.002718318300709, 0.9892837334759579, 1.0152299989223488, 1.0020431949635438, 0.9885762005969011, 0.999275593713559, 0.997347335878854, 0.9989944472158234, 0.9982364321941245, 0.9964834401011332, 1.006742266509825, 1.0010609373090054, 0.9982245922855658, 0.999929220360994, 0.9999342107984415, 0.9990074638809306, 0.9863611290841251, 0.9656236393935835, 0.9331947985095788, 0.8644360295582543, 0.7338417110466564, 0.5373217654516501, 0.28397879903884593, 0.0835482544100572, 0.015925871686238244, 0.010352284716981044, 0.01021178531150609, 0.010208736483079973, 0.01020862204198623, 0.010208680708764357, 0.01020462340210655, 0.01000416200920185, 9.024160568317418e-05</t>
+          <t>0.9905879458446973, 1.008021062108699, 0.9934961849093766, 1.00342523406428, 1.0001935721544624, 0.99541477607199, 0.9976521694989552, 0.998993750195673, 0.9994850852914835, 1.0001749477069184, 1.0005657773643233, 0.9954785813196341, 0.988080698069328, 0.9937590475501454, 0.9950875627575928, 0.9973937570581953, 0.9978289072921004, 0.9966296338024759, 0.9998174207955076, 1.0017023579679931, 0.9989078322520142, 0.9980012514685507, 0.9971874774489294, 1.001570012086434, 1.0063908788768354, 1.0027025632070206, 0.9997759068383193, 0.996728147047466, 0.9920038037372614, 0.9950570086272168, 0.99570030935748, 0.9976058117673581, 0.9989096688020236, 0.999828451563367, 1.0005745350205126, 1.0019966214504763, 1.0009484624525138, 1.0008864568507885, 1.0013884675287468, 0.9993813437508925, 0.9974456536213357, 0.9988488717489474, 0.9993415853966823, 0.999401789595055, 1.0006882919636604, 1.0019733812256686, 1.0024998044780977, 1.0036887140064996, 1.0066246881114342, 1.0157910204984792</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>56326</v>
+        <v>100241</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10.36733095274238</v>
+        <v>0.2660901016169986</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.0004505795216592, 0.9979194957914301, 0.9999703689850212, 1.000812792671626, 0.9943539764179858, 0.985679157898304, 1.0009029171668968, 1.0052187874361338, 0.9988086223975385, 1.0047091693361014, 1.0030222688957127, 0.9955306815943047, 0.9981990028006428, 1.0023287659915556, 0.9978602974379286, 0.9968690704901919, 0.999603112085497, 1.007079261598561, 0.9984469375205041, 0.9943671823614175, 0.9967461797184772, 1.0034611335192873, 0.9986627098193009, 0.9962865014253239, 1.003043626344966, 1.0014520030038967, 0.9911450061775553, 0.9990450698577051, 1.003153943150924, 0.9998049172710276, 0.9972024718278324, 0.993444917846129, 0.9901552705521679, 0.9791912579575326, 0.9522225527667094, 0.9024983338564407, 0.8105981572263506, 0.6506936651392244, 0.410672768369049, 0.16420488503637828, 0.0332455281071117, 0.011117125135480072, 0.010228047364337274, 0.010209106663666303, 0.010208807353247595, 0.01020869685017796, 0.0102085358503716, 0.010204589806919984, 0.010004284919156241, 9.648193386022063e-05</t>
+          <t>1.003656436959061, 1.018542588759574, 1.006162138723685, 0.9898452965055421, 0.9949252564826968, 0.9969662311227478, 0.9975688847580659, 1.0001049265273676, 1.002606547616906, 1.0018168429605983, 1.0006543690802299, 0.9998885695669727, 0.9991969376367055, 0.999167943894569, 0.9982684777265642, 0.9991908069311564, 0.9997448303368853, 1.0001307453765036, 1.0027635076928518, 1.0070846478090774, 0.9966523694581949, 0.9993805423125199, 0.9990575378069375, 0.9996292476718306, 1.0000510515465342, 1.0003121462126208, 1.0000590495513626, 0.9997136813275875, 0.9995519256465537, 0.999219116806578, 0.9986251600072823, 0.9974504032934098, 0.9957558284950592, 1.0043343807788987, 0.9981900799696105, 0.999375464322665, 1.000169422340626, 1.0003376005320954, 1.0003342403064193, 1.0003406738892167, 0.999806516808029, 0.9990472394721976, 1.0004940165620826, 1.002355133417106, 1.0029710650806336, 1.0057229986776985, 1.0120291151677507, 1.024200905964519, 1.049330714069298, 1.100716584613228</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>56209</v>
+        <v>100330</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10.47236965896342</v>
+        <v>0.2852826224135205</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.0017746901555784, 0.9989453341420776, 1.0008645826843046, 1.000019021127289, 0.9975909521159307, 0.991847743808046, 1.01301729769423, 0.9849397530606934, 1.0003422585093844, 1.0074273589738942, 1.000175546493386, 0.9980401435005793, 0.9978440714652648, 0.9999494471707323, 1.0036692865278096, 0.9942865536096207, 0.9963940342253551, 1.0055717000473456, 1.0019547330380503, 1.002251496520955, 1.0015126946737685, 0.9989184920125994, 0.9883945610516202, 0.9948982205514225, 1.0047047830962712, 1.0163882704500082, 1.0034903406534956, 0.9926778432738939, 0.9949892058689956, 0.9946984051839919, 0.9915303148659959, 0.9869431306441249, 0.9899381861883494, 0.97407247120963, 0.9464143735462509, 0.9162979154634524, 0.8383067598824796, 0.7036617424265953, 0.4908099991528827, 0.23628373474429298, 0.05562812749477006, 0.01235970511104312, 0.010254902744231324, 0.010209152680298277, 0.010208355926525983, 0.010208109556958991, 0.010208073585633658, 0.010204596195816568, 0.010004379419693446, 0.00010124706830359093</t>
+          <t>1.004444173015775, 0.9989921955210691, 1.0221616451056907, 1.000941110607153, 1.0002915146870894, 0.9990153573301066, 0.9992746989630561, 0.9990371179184505, 0.9982332870419215, 0.9965768485893807, 1.0041706819795808, 1.002641612883382, 1.0024846356330825, 1.0000891185780503, 0.9976852909142133, 0.9987260454507667, 0.9992034831407268, 0.9994907374609538, 0.9994396224487975, 0.9988781300043394, 0.9995547309525976, 1.0000797291552965, 1.0006419926293628, 1.0003210225382186, 1.0000577086855171, 0.9999440772920166, 0.9997122141004755, 0.9997454220199766, 1.0001059131527557, 1.000175509367981, 1.000443035278427, 0.9999254068305565, 0.9998791600681605, 0.9999322326262258, 1.0001618708765387, 1.000863248057676, 1.0000660297807034, 0.9989995993771178, 0.9997035556549362, 1.0005604431283575, 1.0005177559204477, 1.0005122498650767, 1.0007123907682596, 1.0007152315227144, 1.0009213705838254, 1.0026277245112303, 1.0057584151092962, 1.0106893740298912, 1.021014976759974, 1.0423265662598662</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>57810</v>
+        <v>100455</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10.48972123287637</v>
+        <v>0.2948130317003789</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.0025773937456466, 0.9991279092720503, 1.0002222508593954, 0.9982333146090767, 1.003321658122909, 1.0091461422049617, 0.9922630455181224, 0.9612385046523024, 0.983890146581754, 0.9991529922201606, 1.0004490962824506, 0.998824907743153, 0.9967321077490681, 0.9994891762200276, 1.0044797811499053, 0.9986749667212645, 0.9983060546493931, 0.9980606811967243, 1.003694159547774, 1.0109458431944374, 1.0016046329784358, 0.9880533775044499, 0.9924871733106282, 0.9890153424254179, 0.9832445238591989, 0.9847152654758864, 0.9918460846678151, 0.9989969512933248, 1.0049361560832275, 1.0002639469861503, 1.0007820336151123, 1.0005801442847762, 0.9958299967352036, 0.9823404502851872, 0.9688913869602248, 0.9389223928647198, 0.8708085756953912, 0.7471938331956629, 0.5323191836358504, 0.28912311341150176, 0.0855248045586629, 0.016118039258415272, 0.010352943188907119, 0.010211594794879828, 0.010208691375584854, 0.010208656356610332, 0.010208667024777398, 0.010204519175524061, 0.010004357459332482, 0.0001002167996387613</t>
+          <t>0.9738913551763232, 0.9737353044281563, 0.9896524760340665, 1.0004219034704411, 1.0020998765561773, 1.004621757105077, 1.0027195827675328, 1.0022089371799578, 0.997533262981217, 0.9987547545090728, 0.9992909661309992, 0.9994279285083498, 0.9994147667640392, 0.9993146823745538, 0.9989986078628385, 1.0001361267901405, 0.9994306581203798, 0.9996128176205272, 0.9994687034001989, 0.9998919769535397, 1.000072958453008, 1.0002802306500946, 1.0001112536912484, 0.9999606304821563, 0.9999900930988026, 1.0000846445843634, 0.9999876653032697, 0.9998543259602032, 0.9996266051154933, 0.9999811029049321, 1.0004545679450363, 0.99994847618263, 0.9996143924026338, 0.9999972744092093, 1.000189557924811, 1.0000413907586727, 0.9999949462290101, 1.0000372384952183, 1.0000265306610339, 0.9999934981816877, 0.9998516471194159, 1.000112923546464, 0.999978270573179, 1.0001238586495942, 1.0004902470250512, 1.000654523712937, 1.001201268997201, 1.0023402658581806, 1.0046343698437454, 1.0091534870407786</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>56266</v>
+        <v>100467</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10.50010532447562</v>
+        <v>0.3000820616921689</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.9968806740805355, 1.0021197749476565, 0.998119019972806, 0.9964226387651117, 1.0054081607482332, 1.0169476572203253, 0.9810159774325111, 1.0045147055460804, 1.0002461802814724, 1.0024415048042448, 0.9988439467848286, 0.9868935633057182, 0.9975375611388583, 1.0028810750529906, 1.0052046063244642, 0.9993741013191403, 0.9950820892946771, 0.9968612785541513, 0.9977401962001848, 0.9958975484063519, 0.9971997846710879, 0.9989469288491282, 1.002574197313219, 1.0049070918602891, 1.004637477169398, 1.0000582577861912, 0.9929006333316828, 0.9982964904534664, 0.9998179736199833, 0.9993302910909589, 0.9968641708052889, 0.9996501120214303, 0.9944016756109418, 0.978052320889382, 0.948057784009669, 0.9235068327180693, 0.8630719331308101, 0.7203604928727638, 0.5155704985109361, 0.25277296304081065, 0.06282995699349221, 0.013141905217387529, 0.01027394304003546, 0.01021007967430177, 0.01020864189264261, 0.010208714617468417, 0.01020850651690742, 0.010204521610245897, 0.010004348924970052, 9.978339122268492e-05</t>
+          <t>0.9996677035452602, 1.0017328016627518, 0.9996088724618963, 0.9974940469991551, 1.0099033698914721, 1.0272736486810516, 1.010857205837213, 0.9999198536588916, 0.9988119194576679, 0.9970868085003426, 0.993851836660018, 0.9968796288407291, 0.9983620234198388, 1.001217166595517, 1.000124920398761, 0.9991909223876804, 0.9983835946563122, 0.9966715008232931, 0.9988168004442887, 1.0003031674296194, 1.0017310597858644, 0.9999450971553354, 0.9984168271151816, 0.9996675528300725, 1.0008760544029307, 0.99982150953551, 0.9988700187707141, 0.9995727760853559, 0.9999972756562217, 1.0006080932259245, 1.0002968098850122, 1.0006225911043507, 0.9998943218412191, 0.9990528515409385, 1.0000145802347347, 1.0008331957075398, 0.9999915380499571, 0.9994978783651997, 1.0001023938363913, 1.0003640544424817, 1.000854884317605, 1.0007171832719293, 0.9998432636217969, 0.9989485753385641, 0.9976159907695888, 0.995923879616557, 0.9921067418063776, 0.9838955412570464, 0.9677465618281957, 0.9360029885855312</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>57649</v>
+        <v>100532</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10.61119283668118</v>
+        <v>0.3127722988103034</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.9979865871903842, 1.0004917715622912, 0.9999820098872031, 1.0020233851942586, 0.9940559402843583, 0.9812890251699768, 1.0019254826511408, 1.01108843679117, 0.9985137370557706, 0.9961737396961041, 1.0025115465211643, 1.0084344647120882, 1.0031663550443999, 0.9986781621063011, 0.9954670856996958, 1.006588629101327, 1.011361028853248, 1.0010874368173233, 0.9920719733833079, 1.0050467971726142, 1.0055297048569831, 1.0012707052636485, 0.9956105652085225, 0.9977787329444053, 0.9964421221157711, 0.9990455733459955, 1.0037032238572476, 1.0025369214171604, 0.9995840442954319, 0.9928975608005381, 0.9922380044643397, 0.9919599965725951, 0.9882980442818763, 0.9773809261252608, 0.9585317316502767, 0.9332154688639258, 0.8280704509372483, 0.6843403704791973, 0.4536814550578253, 0.1942740620398478, 0.0371284352638187, 0.011171289278018701, 0.010228723208162706, 0.01020949215855988, 0.0102085586022958, 0.010208563940873399, 0.010208515445930723, 0.010204609296937568, 0.0100043134230443, 9.790137206265287e-05</t>
+          <t>0.9998803609228534, 0.9999630317938408, 0.999624339864275, 0.9990697564940791, 1.0008572474163164, 1.0031484507422646, 0.9963462151659135, 0.9725001002725687, 0.986468856714932, 0.9936379679790951, 0.9981638866592059, 1.001598712343591, 0.999953648717449, 0.9984483045791235, 0.9961224914360304, 0.9981333603105084, 0.9991853264335163, 1.0010484353440665, 1.003440734050341, 1.001065747219285, 0.9992592773154417, 0.9976966898281656, 0.9949937317150116, 0.9993562910232632, 1.0033634668436557, 1.0008148227098792, 0.9986170286992687, 0.9957110879537292, 0.9982150494748391, 0.999827653330811, 1.0001982531056983, 1.0006492769133741, 1.0002928741163026, 1.0001049763509224, 1.000229197296288, 1.000459577317298, 1.0002415939119464, 1.000200975203394, 1.0002885297119968, 1.0008383005357506, 1.0018102010399161, 1.0004408856269547, 0.9992632803301279, 1.0008893731184518, 1.0029854682676813, 1.0061307071908252, 1.0123864929128878, 1.0234786460598158, 1.0469441876338876, 1.0967420653713127</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>56918</v>
+        <v>100004</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10.71720531334797</v>
+        <v>0.3209900740664595</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.004846578495015, 0.9969585360154297, 1.0016436147990888, 1.0016857827286902, 0.9948761291518745, 0.9892699447289008, 1.0124531362150264, 1.010334854168701, 1.0022719768570845, 0.988420468741591, 1.0002003309176684, 1.0079464866227008, 0.9995717463840258, 0.9985558464355754, 1.0006961430930528, 1.0042876952474888, 1.0004878510468982, 0.9975290286856543, 1.001042324582511, 1.0035641128675605, 0.9971919567103253, 0.9942811819538072, 0.989099143740711, 1.0010069165845816, 1.0059385942402659, 1.0031633373969628, 1.0008909289304202, 1.001134693654329, 0.9993406655912046, 1.0017254232742057, 0.9982797439555066, 0.9928065222236822, 0.9884010873934647, 0.9699607454577831, 0.9397160553403353, 0.8832263150440738, 0.7760193469095081, 0.6061613452044712, 0.3558300366425331, 0.1230339978894369, 0.022367402081641403, 0.010576563611140687, 0.010216260773603584, 0.010208921351364588, 0.010208612390248705, 0.010208759128356679, 0.010208905345208978, 0.010204540296528024, 0.010004340801541629, 9.935416400889082e-05</t>
+          <t>0.9798882902629581, 1.0047828374824244, 1.0029412987278232, 1.0021637391016842, 0.9997143732007182, 0.9972491333878033, 1.0004453972976945, 1.0068117051881933, 1.001103554306843, 0.9963456404842423, 0.9960413873744836, 0.9941771634300987, 0.9999471759313708, 1.00004835803195, 1.0008930999200594, 1.0024257137666017, 1.0053899558973451, 1.0109311269683998, 1.0056640701976969, 1.0033171467025672, 1.0015963502051406, 1.0008913250737572, 1.000821386367703, 0.9995354658764621, 0.9984094903539448, 0.9990940971563709, 0.9993273725680241, 1.0005328999689074, 1.0019647471644244, 1.000323016226731, 0.9989524511879111, 0.9972871481278334, 1.0005049314758292, 1.0037887658396363, 0.9994010541739862, 0.9945538435980878, 0.9981704626295934, 1.0009187857578814, 1.0043786058956068, 0.9997385290240943, 0.9998254668201111, 0.9998263178561102, 0.9998616429425128, 0.9999527373315369, 1.0000873960392105, 1.0003163903438537, 1.0007916107617947, 1.0018202185075642, 1.0045240811361282, 1.0095862811656644</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>56949</v>
+        <v>100450</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10.74585846258555</v>
+        <v>0.3289369198204128</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1.0094401478897237, 0.9994895091646397, 0.999674048459706, 1.0026971117381005, 0.9943915502269723, 0.9800232209578901, 1.0166738116727083, 0.9980551842726715, 1.0003508714013924, 1.0013172010892317, 1.0031311550976592, 1.0070894009950302, 1.0023462817227764, 0.9980839934521343, 0.993562925530481, 0.9996042712908857, 1.0052857162147866, 0.9980784816400664, 0.985826204837248, 0.9942877579254933, 1.0042477924957036, 1.0164670534028986, 1.00921003614032, 1.0047280429107532, 1.003081004903009, 1.002869941589193, 0.9997032791703038, 0.998183347561855, 0.9947862636980499, 0.9996210478784172, 1.0040729743055694, 1.009500298857456, 1.001683922399913, 0.993627466576641, 0.971994359284042, 0.9249077536849922, 0.8359550283983807, 0.6863369854181227, 0.4754758263021595, 0.21865896214999783, 0.051336112338580465, 0.012366136598151271, 0.010256524079107737, 0.010209137699465732, 0.01020796221197229, 0.01020841086449846, 0.01020818913785628, 0.010204637822413546, 0.010004360560666399, 0.00010025237535011061</t>
+          <t>0.9999510049501245, 0.9903710254548012, 0.9979234182461293, 0.9901363913458031, 1.0195147953161248, 1.0085063268042649, 1.0018533682881403, 1.0018457719346505, 1.0020660493291862, 1.0031678949232155, 1.0015742430105925, 1.0007319532406633, 0.9998153429608609, 0.999053810531586, 0.9976958582421316, 0.9983517368770659, 1.0000743265512122, 1.0017180621580015, 1.0006614975217114, 1.0000619055744133, 0.9999655747126254, 1.0001822839106145, 0.9999016377224696, 0.9992593129915919, 0.9996666780425745, 0.9998672048181954, 1.0002625455110417, 1.0010309193025857, 1.0023630846083331, 0.9999574726942921, 0.9991930950506078, 0.9994554162783338, 0.9999517679559473, 1.0003920654694314, 1.000166733554661, 1.0001723468423522, 1.000416674324894, 1.000198588173702, 0.9999306034055987, 0.999934679978429, 0.999985925649144, 0.9989130969870883, 0.9988597123986076, 0.9982571598430868, 0.9963514533470952, 0.9927773878710044, 0.9855521220743642, 0.9711443301453819, 0.9426801876316773, 0.887993751061775</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>57008</v>
+        <v>100347</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>10.81691602391401</v>
+        <v>0.3890435267327689</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.0017619979961179, 1.003276803822173, 1.0080298204627756, 1.0015030482311567, 1.000105084337444, 0.9981571544723962, 0.9995205398910993, 1.0013136680846841, 1.004893243028159, 1.001643402085804, 1.001543633566029, 1.0004201514909097, 0.9986554380131327, 0.9986974693283669, 0.9975645799157956, 0.9950487187060705, 0.9927245956156278, 0.9909286738158728, 0.9972233653602101, 1.0068397683407426, 0.9970826299676864, 0.9935421971757092, 1.0027766492730474, 1.0152463829860692, 1.0013362699967627, 0.9888893286573508, 0.9981756813649929, 1.0047016085205795, 1.0076938380189207, 0.999820239188203, 0.9937478470550775, 0.9837908293741076, 0.9862230774464816, 0.9757654289644047, 0.9345667055647418, 0.8832329034347772, 0.7865824563002689, 0.5980256751418349, 0.34160394829132784, 0.10841965920904643, 0.01853044399220026, 0.01041582991477488, 0.010213549919197014, 0.010209200984261438, 0.0102092244768714, 0.010209058139292033, 0.01020875915148233, 0.010204507464286684, 0.010004362727879385, 0.00010049476635189533</t>
+          <t>0.9992757613584161, 1.00111657183418, 1.0000689226711497, 1.000211445663351, 0.9994179600690651, 0.9969778810635302, 1.0008378063079353, 1.0044975220904901, 0.9999061524077684, 0.9949100138338759, 0.9993886961083349, 1.0044723548000511, 0.9965646740511123, 0.9992086198474542, 1.0014498330958046, 0.9989544194806158, 0.9958764919175815, 1.0047274534167538, 1.0167048983500693, 1.000745569338523, 0.9848898766640827, 0.9948449892566822, 0.9993287421659415, 1.003493012706517, 0.9942923874918213, 1.0021682629727309, 1.011550859124128, 0.9994109139786729, 1.000169334166683, 1.0004706773345977, 1.000488668907994, 1.0007035886092088, 1.0016678330768976, 1.0014873946857832, 1.0018995839928673, 1.0031607320352673, 1.0003697538384928, 0.998657790465015, 0.9996746129065952, 1.000040710966746, 0.999954727739817, 0.9994250271607796, 0.9982353758554896, 1.0011577106330212, 1.0002559206102055, 0.9999070674208268, 1.0000496289196417, 1.000190057927208, 0.9989897554352378, 0.9983820473428945</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>56879</v>
+        <v>100468</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>11.08570025456809</v>
+        <v>0.5545456264128938</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0.995154102301355, 1.0014384448882665, 0.9990981120197336, 1.002735996288215, 0.9965524926634719, 0.990275847017099, 1.00501652171778, 1.0000986601802277, 0.9996721766004775, 1.0006582612728128, 0.9998387571923133, 1.003141920133851, 1.0025171282505507, 0.9988294220194383, 0.9968863356054212, 0.9963703629696858, 0.9982007190034498, 0.9960009806679259, 0.996642314583981, 1.0011281130041112, 0.9921497794256051, 1.0009695904144114, 1.0092835793868802, 1.010709800309525, 1.015436824288657, 0.9973283687403526, 0.9825614798514554, 0.9961494283250151, 1.0020268279926587, 0.9908968469783502, 0.9916275398325438, 0.9882116527541741, 0.9807207609130716, 0.9609023100910888, 0.9370471662291358, 0.8807382444890195, 0.7589214884921873, 0.5504500757867349, 0.2917361179927389, 0.07956896626610635, 0.014034407030115013, 0.010293789257625583, 0.010211077232472174, 0.010209322853269807, 0.010208676149616989, 0.01020853478505622, 0.010208684338547297, 0.010204505486618144, 0.010004347753883409, 9.974071292140079e-05</t>
+          <t>0.9999270764750308, 1.0012911346381332, 0.9998252258834468, 0.9982494619167858, 1.0100089457874297, 1.0268616427589965, 1.0056871407975725, 0.9871986811199865, 0.9990173763207142, 1.0102875531259354, 0.9994207346506154, 0.9881807974983509, 1.00557080730279, 1.0016547776183173, 0.9985590773670602, 0.9989993609472931, 0.9989181651809876, 0.9982800057200367, 0.9967665997896327, 0.9997614899507651, 0.9999154311288543, 1.000021522814592, 1.0000788003551142, 1.0001602598624748, 1.0003167667592014, 1.0002103346432243, 1.0002042756544263, 1.0001000978821744, 1.0000427575953124, 0.9999755836264236, 0.9998881213920461, 1.0005354406117197, 0.9997410055177107, 0.9988034429077584, 0.9998214959296858, 1.0007358309470697, 0.9995322767835394, 0.9997782465956607, 0.9999122339279802, 0.9999399022901047, 0.9999429444757674, 1.0000092101736828, 1.0000140109453106, 1.0000240603881474, 0.9999207481318794, 0.9997627347457855, 0.9994762678380884, 0.9989191678140185, 0.9978609998219692, 0.9957183033857412</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>57628</v>
+        <v>100538</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>11.1919128039309</v>
+        <v>0.5845576760217531</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0.9981667735427193, 0.9980804631486201, 1.000102556189755, 1.005312210838113, 0.9999045685925045, 1.0060415577571102, 1.0012139891750187, 0.9923008514065526, 1.0023628676558534, 1.002580897080755, 0.9998884968041836, 0.9954293366282482, 0.9991993958647427, 1.00287244510669, 1.0073734869962394, 1.0070705409874412, 1.0047479121175755, 1.0013844821397702, 1.0006528739493963, 1.0052392098376792, 1.0015142087732325, 0.9985324641577179, 1.0061257439389797, 1.0139631276571814, 1.0161839310095115, 1.0107486807402921, 1.0088732873720232, 1.0014569993169828, 0.9962901894111446, 1.0004787481111483, 0.9976055945949, 0.9946792782579175, 0.9876048471514353, 0.9564229964668255, 0.9233374987390438, 0.8707724366672784, 0.7260256261884315, 0.5079554970835015, 0.24826910465485202, 0.05236891201396492, 0.011836479067480815, 0.010242503782002537, 0.010209551669076047, 0.010208747235621367, 0.010208651580953727, 0.010208171057260499, 0.010207601690456373, 0.010205260055456796, 0.01000407664861833, 8.528242293693787e-05</t>
+          <t>1.0047162824946676, 1.0283528324452071, 1.0004458828597658, 0.9923198386952632, 1.0116593862599328, 0.9994553706131857, 0.986875402764036, 0.9946604387634576, 0.9997237346281459, 1.0001778650343605, 1.0006452028794823, 1.00139034852038, 1.0028092515855411, 1.005888193671957, 1.0029515385910508, 1.0014717149903556, 1.000677502866232, 1.000170641354981, 0.9997067012735072, 0.999031674290959, 0.9978160099335008, 0.9988234197675716, 0.9992260170985676, 0.9995417224006272, 0.9996722927830222, 0.9996567947175479, 0.9999827248153045, 1.0003175422976793, 1.0002142872915172, 1.000229039347602, 1.0000862515120312, 0.9999637216071461, 1.0000608320906523, 1.0001601144668246, 1.0000568066136544, 0.999986453507848, 1.0002921920755294, 1.0007383115491757, 0.9983061140527872, 0.9994062276772459, 1.000204745634396, 0.9998890173163301, 0.9995412745260275, 0.998771268604521, 0.9974225140738298, 0.99588456308362, 0.9912380415164066, 0.9821425821720114, 0.9643130973026195, 0.9295936309035088</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>57551</v>
+        <v>100140</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>11.66788666831564</v>
+        <v>0.6224487758558552</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0.9906299174476152, 0.9917158450093448, 0.9958537382047782, 0.9965822785490714, 1.0024373377411941, 1.0008047461597156, 0.9943365307226366, 1.0000516304660172, 1.0004957893831363, 0.9982577482134297, 0.9998968106678489, 1.0025934447194322, 0.995604012687702, 0.9942266283877934, 0.9947477526181329, 0.9986766763301559, 1.0050917834257111, 1.000246560486064, 0.9992833063782148, 1.0021483924985584, 1.0070626329279724, 1.002240006325706, 0.9994054332268705, 1.000373474966033, 1.0040375994968778, 0.9969242856060927, 0.9941559134014032, 1.0026107248434064, 0.997228948772265, 0.9910759259522994, 0.9938115148936006, 0.9905233888238463, 0.9659169224023361, 0.9339618985989132, 0.8794686209664067, 0.7628015928909997, 0.5662482345173697, 0.31914144045904225, 0.09591243160766946, 0.01681818273103656, 0.01036962916681601, 0.010212206603644865, 0.010208759259035525, 0.010208847174004313, 0.01020890193570775, 0.010208671086326254, 0.010208499450423092, 0.010204546474409576, 0.010004564889977294, 0.00011066514986174342</t>
+          <t>1.0344441493951304, 1.0297869727244484, 0.9981941593146947, 1.0023737305275195, 1.0077036239569428, 1.005599890847949, 1.0002026104786255, 0.994879388085892, 0.9969017686843729, 0.9974649067997458, 0.9996280698628393, 1.001609149736418, 0.9979355777840726, 1.001272380411656, 1.005280440988801, 1.001648896566939, 0.9989564898659234, 0.9997698187012974, 0.9948578179446782, 0.9973580837620462, 0.9983429080808752, 0.9986625333766499, 0.9988949570729735, 0.9989599356456546, 0.999438866376604, 0.9995315778469542, 0.9993415362164706, 0.9998645165457914, 1.0004127225923927, 1.001307431442354, 1.0000374520703126, 0.9985901210856495, 0.9997981866360743, 1.00075323478514, 1.0002381439024761, 1.0000388591881402, 0.9989269791676747, 0.9994062298842917, 0.9995142857392236, 1.0004321765364754, 1.0014604350891327, 0.9992991546113678, 0.9994810096027822, 0.9995675836296376, 0.9992956711210603, 0.9985386337034006, 0.9968778465525754, 0.9939378651730154, 0.9880557651488385, 0.9750415280955155</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>56752</v>
+        <v>100460</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>13.16220857115181</v>
+        <v>0.6652546731540427</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1.018436783380322, 0.9900887715636344, 1.0004039572017354, 1.0064885729467108, 0.9885999465055553, 0.9661311856671552, 1.0051807478557464, 1.000877347220485, 0.9997851881281078, 0.9987210977541139, 1.0015140497791162, 0.9989579070693902, 0.9978642114056288, 0.9958922950931709, 0.9974413985314494, 0.9982678036310829, 0.9963930521141695, 0.9987958840368817, 1.0006663110380039, 0.9986901362501175, 0.9964142551839883, 1.0009080328619397, 1.008750546011718, 0.9863159436935488, 1.0094881177186859, 0.9969061723228436, 0.9953139811873744, 0.9989422150390131, 0.9924653940758422, 0.9888283566645689, 0.9814032428691857, 0.9577088129501876, 0.9447942351316388, 0.9065256109535582, 0.8259288271229116, 0.6975556339997178, 0.46704292798062924, 0.22419561092273343, 0.052954646393440066, 0.012156914836335558, 0.010250593948715444, 0.01020951142941735, 0.010208628663504235, 0.010208733097973273, 0.010208664446312264, 0.010208821537372698, 0.010208663750241957, 0.010202688188733197, 0.009968291261004257, -0.0017271742864775664</t>
+          <t>0.9999507854503583, 1.0017356515182267, 1.0003019487895155, 0.9990302665685875, 1.0161376956256791, 1.041528257940204, 1.016734874727392, 1.0004296531438173, 0.9986213933816197, 0.9963138016282639, 0.9973083516155341, 0.9968425235377675, 0.9990682042627836, 1.0010199277926175, 1.0033739066987848, 1.0027212652938566, 1.003420602590937, 0.9990063991955233, 0.9940173454241503, 0.9997877189130278, 1.0053151367830007, 1.0023172251431995, 1.0004879946686054, 0.9988709921314044, 0.9989177683894699, 0.9988735319254595, 0.9988066438300551, 0.9984719780777039, 0.9991907248693371, 0.9996998889135214, 1.0001091361762802, 1.0005559137713047, 1.0001008321608675, 1.0001860892416343, 1.0002418611235953, 0.9999918013002457, 0.9997878662624898, 0.9999609898958942, 0.9998979612863795, 1.0000830809368912, 1.0001155931818773, 1.0001847434816906, 1.0001102624569487, 0.9997105323752699, 1.0007149514207696, 0.99957922809149, 0.9982251907965212, 0.9993127438823702, 1.0000759261668037, 0.9982797451216797</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>56951</v>
+        <v>100479</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>13.46612211055091</v>
+        <v>0.9201614109964796</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.9957512603864845, 1.013614799038269, 0.9781725199049263, 0.9763385332822062, 1.0086802530274752, 1.0063472140853973, 1.0096314068426309, 1.001710640934236, 0.9896336738983948, 1.0097539205297248, 1.0011424793821968, 1.0000029376071926, 1.0000406889620856, 0.9982292252293513, 0.9974621445027599, 0.995818927437052, 0.9966134106609063, 1.0011519678945116, 1.0092376351240078, 1.0092490539251557, 1.0017226587505605, 0.9975404734887452, 1.002815050005609, 1.0049437177229992, 1.0031841064171199, 1.0068415757840241, 1.0062208225094174, 1.0010339819887968, 0.9935436233225062, 0.984161851425807, 0.9875325985773803, 0.9722657761296393, 0.9392900111329168, 0.8695451290645845, 0.7363771569416323, 0.5693694846749318, 0.3344067476046173, 0.11640110606146814, 0.020340128600185636, 0.010469987042010237, 0.010213730233766496, 0.010208225709496161, 0.010207839842535375, 0.010207062170937137, 0.010208221097915726, 0.010208464604540111, 0.010209200177510818, 0.010205608735635, 0.010007074870768991, 0.0002363675653296656</t>
+          <t>0.9619594005834968, 1.0078176667248961, 1.0025197558298091, 0.9984593767377475, 1.002230755029248, 1.005610547019428, 0.996834242800203, 0.9864049423828942, 1.000504241347355, 1.0147577305945075, 1.0102952512704924, 1.0033609326587791, 0.9981130478923349, 0.9988063867983431, 0.9989033086186845, 0.9984417105065994, 0.9971853592565445, 0.9945063173638967, 1.0012149695017414, 1.0006462016854052, 1.0004113179483234, 1.0003771736261056, 1.0004947590384903, 1.0007987427405296, 1.0015042019057696, 1.0005608055962718, 0.9999217854376536, 0.9997555713911849, 0.9994537163440756, 0.9998390156963769, 1.0001187901663242, 1.000546745202912, 1.0002085159064917, 0.9999954309596427, 0.9999196038467949, 0.9998116552284925, 1.0000209190246996, 1.0002760670799802, 1.000000596216561, 1.0000466803150976, 1.0001262287836012, 1.000151004681177, 1.0002182787366052, 1.0005153374764886, 1.001149481039605, 1.0023646772900325, 1.004511980918762, 1.0089698458228538, 1.0184290626283217, 1.0374993537025634</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>55598</v>
+        <v>100462</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>13.70689563643941</v>
+        <v>0.9252302812978552</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0.994693528923211, 1.0047577398805803, 1.0013247797778309, 0.9902271363117028, 1.004796089181096, 1.005139735554418, 1.0018535832088302, 1.0008274849394623, 0.9993510225699433, 0.997281651284992, 0.9831258987365682, 0.998266337155114, 1.0099314281245713, 1.0001758738242685, 0.9976491847304276, 0.9955699100640213, 0.9976854592596333, 0.9980943662712909, 1.0026280562800463, 0.9975138462271913, 1.0013300331489192, 1.0084800079223397, 1.0060637464188869, 0.9927670712362522, 0.994585423706886, 0.994834094770766, 0.9947449001450278, 0.9951503499178977, 0.9934059856970304, 0.9860077327196223, 0.9728013304663338, 0.9463875121584457, 0.8949231369136031, 0.7790073701257771, 0.5965460922123558, 0.3538356837986133, 0.12064613839491349, 0.02120916172900807, 0.0105255330898663, 0.010215479175769987, 0.010208885372839671, 0.010209302866163276, 0.010208992400840932, 0.010208753924671861, 0.010208501462314766, 0.010208818855363956, 0.01020882768842702, 0.010204540272722825, 0.010004078062448223, 8.608785940020994e-05</t>
+          <t>0.9881281781210782, 1.0088083949535012, 0.9737416778104124, 0.9581111930921818, 0.9931882021531137, 0.9955827664801197, 0.9968231117657509, 0.9974433902295347, 0.9967637631866204, 0.9986363834195845, 0.9999077672990052, 1.0013855103344884, 1.0020173504544885, 0.995395235158987, 0.9974267296197283, 0.99876839202041, 0.9998546595440463, 1.0003387067423022, 0.9999331136268612, 0.9988334742596731, 0.9988267584422367, 0.9984694023533783, 0.999830102710702, 1.0011841647722266, 1.0031272256192412, 1.0002092993626923, 0.9975308087922985, 0.9995685412782401, 1.0014155349519887, 1.000701939509729, 1.0003117015575003, 0.9996772992143276, 0.9985943553463895, 0.9977982131070627, 0.9957812861066191, 0.9986989701919021, 0.9995582257023435, 0.9997176953128534, 0.9997147683528301, 0.9993849000684687, 1.0001458400222267, 1.0011125164408494, 0.9998310018586185, 0.9984774884149028, 0.9998667529110634, 1.0011865649571179, 1.0001487545164076, 0.9990995952540849, 0.9976138506862583, 0.9963313767618374</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>55708</v>
+        <v>100510</v>
       </c>
     </row>
   </sheetData>
@@ -889,19 +889,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.11853071408562</v>
+        <v>0.003318612077168091</v>
       </c>
       <c r="B2" t="n">
-        <v>13.70689563643941</v>
+        <v>0.9252302812978552</v>
       </c>
       <c r="C2" t="n">
-        <v>10.05224187385942</v>
+        <v>0.2688239057002993</v>
       </c>
       <c r="D2" t="n">
-        <v>1.571610325249575</v>
+        <v>0.2593078926327553</v>
       </c>
       <c r="E2" t="n">
-        <v>57024.5</v>
+        <v>100373.5333333333</v>
       </c>
     </row>
   </sheetData>
